--- a/output/proc_3_CHARLS/RegReport_CHARLS.xlsx
+++ b/output/proc_3_CHARLS/RegReport_CHARLS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -36,220 +36,349 @@
     <t xml:space="preserve">AVGINDIINCOME_TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0000**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0000***</t>
+    <t xml:space="preserve"> 0.0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0076**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0119***</t>
   </si>
   <si>
     <t xml:space="preserve">AVGINDIINCOME_TOTAL_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0000)</t>
+    <t xml:space="preserve">(0.0037)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0041)</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1961**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1920**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0208</t>
+    <t xml:space="preserve">-0.2659**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2683**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0310</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0901)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0172)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0894)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGAGE_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0011)</t>
+    <t xml:space="preserve">(0.1069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0470)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0419)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0053)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0126***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0093*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0079**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0078**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0049)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALE_RATIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0327</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1246*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0471</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1322*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALE_RATIO_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2066)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0755)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1952)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0697)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGOUTP1M_TIMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1978***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2515***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1950***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2552***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGOUTP1M_TIMES_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0320)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0088)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0318)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0084)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGOUTP1M_REALEXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGOUTP1M_REALEXP_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGEXP1W_FOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGEXP1W_FOOD_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGTRANSCHILD_AMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGTRANSCHILD_AMT_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGTRANSPAY_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGTRANSPAY_TOTAL_SE</t>
+    <t xml:space="preserve">(0.0039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0054*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0092**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0048)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0079</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0193***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0083*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0090**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0087)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0086)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0072**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0091**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC7_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0059)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0060)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0185**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0142***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0180**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0112***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC8_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0075)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0062*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC9_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0043)</t>
   </si>
   <si>
     <t xml:space="preserve">R-squared</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7541</t>
+    <t xml:space="preserve">0.1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1704</t>
   </si>
   <si>
     <t xml:space="preserve">Adjusted R-squared</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7481</t>
+    <t xml:space="preserve">-0.3452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1455</t>
   </si>
   <si>
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0293</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0332</t>
+    <t xml:space="preserve"> 0.2322***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1579***</t>
   </si>
   <si>
     <t xml:space="preserve">(Intercept)_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0734)</t>
+    <t xml:space="preserve">(0.0552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0491)</t>
   </si>
   <si>
     <t xml:space="preserve">Multiple R-squared</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7535</t>
+    <t xml:space="preserve">0.1442</t>
   </si>
   <si>
     <t xml:space="preserve">AIC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1174.901</t>
+    <t xml:space="preserve">-767.604</t>
   </si>
   <si>
     <t xml:space="preserve">BIC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1131.912</t>
+    <t xml:space="preserve">-716.8697</t>
   </si>
   <si>
     <t xml:space="preserve">CHRONIC_RATIO_FixIndi_OLS_HCse</t>
@@ -267,136 +396,256 @@
     <t xml:space="preserve">CHRONIC_RATIO_Pooling_OLS</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0712***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0573***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0521)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0201)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0533)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0174)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGBMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0086***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0132***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGBMI_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0048)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0047)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0019)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGCHRONIC_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1780***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1789***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0706***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1889***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGCHRONIC_NUM_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0062)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0050)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0192)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0001***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0001**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGEXP1Y_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVGEXP1Y_TOTAL_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7130***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7946***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0442)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0412)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1193.849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1162.519</t>
+    <t xml:space="preserve">-0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0053*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0080*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0032)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0767)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0451)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0674)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0473)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0477***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0388***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0106*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0347***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0214***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0199***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0134***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0247***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0482***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0268***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0175***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0065**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0209***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0152***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0174***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0122**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0087***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0120***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0229***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0028)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0204***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0161***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0088**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0122***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0089**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0170***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0145***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0077**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0182***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC10_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0074**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0117***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC11_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3698</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7763***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7688***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0530)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0554)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-690.6021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-632.1448</t>
   </si>
 </sst>
 </file>
@@ -759,153 +1008,153 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -933,280 +1182,360 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20"/>
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20"/>
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21"/>
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21"/>
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22"/>
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
       <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22"/>
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23"/>
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23"/>
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24"/>
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25"/>
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
       <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25"/>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B26"/>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26"/>
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -1247,113 +1576,113 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
         <v>101</v>
@@ -1364,122 +1693,122 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -1487,100 +1816,380 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14"/>
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
       <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14"/>
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15"/>
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15"/>
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16"/>
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
       <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16"/>
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17"/>
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17"/>
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18"/>
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
       <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
       <c r="E19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19"/>
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
       <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20"/>
+        <v>179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/proc_3_CHARLS/RegReport_CHARLS.xlsx
+++ b/output/proc_3_CHARLS/RegReport_CHARLS.xlsx
@@ -13,432 +13,1275 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">OUTP1M_RATIO_FixIndi_OLS_HCse</t>
+    <t xml:space="preserve">OUTP1M_RATIO_FixIndi_FGLS</t>
   </si>
   <si>
     <t xml:space="preserve">OUTP1M_RATIO_RanIndi_FGLS</t>
   </si>
   <si>
-    <t xml:space="preserve">OUTP1M_RATIO_TwoWays_OLS_HCse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTP1M_RATIO_Pooling_GLS</t>
+    <t xml:space="preserve">OUTP1M_RATIO_TwoWays_FGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTP1M_RATIO_Pooling_FGLS</t>
   </si>
   <si>
     <t xml:space="preserve">OUTP1M_RATIO_Pooling_OLS</t>
   </si>
   <si>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1355***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1784***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1286**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1519***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0511)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0514)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0512)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0425)</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVGINDIINCOME_EARN</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0079</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0087</t>
+    <t xml:space="preserve"> 0.1227***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1485***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1180***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1323***</t>
   </si>
   <si>
     <t xml:space="preserve">AVGINDIINCOME_EARN_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0215)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0158)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0210)</t>
+    <t xml:space="preserve">(0.0427)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0429)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0431)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0467)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGINDIINCOME_EARN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0709***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0830***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0689***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0683**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVGINDIINCOME_EARN2_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0236)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0237)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0267)</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3003**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0789*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2749**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0223</t>
+    <t xml:space="preserve"> 0.0633*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0521</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0038</t>
   </si>
   <si>
     <t xml:space="preserve">AVGEDU_SE</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.1189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0447)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1186)</t>
+    <t xml:space="preserve">(0.0325)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0426)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0333)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0064*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0063*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0162**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0123***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC2_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0037)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0065)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0245***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0225***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0219***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC1_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0063)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0074)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0069)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0062*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0087***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0076*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC3_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0035)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0079**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC6_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0032)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0108***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0124***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0151***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0181***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC5_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0043)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0041)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0160***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0099**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0170***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0122***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC4_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_安徽省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_安徽省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0366)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0365)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_北京市</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1791***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1684***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_北京市_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0507)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0509)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_福建省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_福建省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0388)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_甘肃省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_甘肃省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0389)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0390)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_广东省</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_广东省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0373)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0374)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_广西壮族自治区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_广西壮族自治区_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0387)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0386)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_贵州省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1494***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1466***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_贵州省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0423)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0422)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_河北省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_河北省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_河南省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_河南省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0364)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0367)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_黑龙江省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1120***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1012**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_黑龙江省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0392)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_湖北省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_湖北省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0385)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_湖南省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0628*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_湖南省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_吉林省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1239***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1171***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_吉林省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0428)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_江苏省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0682*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0640*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_江苏省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0370)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_江西省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_江西省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0369)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_辽宁省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1240***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1186***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_辽宁省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0378)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0379)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_内蒙古自治区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0820**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0723*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_内蒙古自治区_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_青海省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_青海省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0491)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0493)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_山东省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1049***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0989***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_山东省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_山西省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0924**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0828**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_山西省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0391)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0395)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_陕西省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_陕西省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_上海市</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1219**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1185**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_上海市_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0502)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0501)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_四川省</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_四川省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0361)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_天津市</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_天津市_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_新疆维吾尔自治区_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0517)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0524)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_云南省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_云南省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0371)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0372)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_浙江省</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0663*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_浙江省_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0384)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-777.8509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-763.3752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-796.954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-632.2393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-610.3352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-753.9651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple R-squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0289*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_2011_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_2013_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0118)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R-squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONIC_RATIO_FixIndi_FGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONIC_RATIO_RanIndi_FGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONIC_RATIO_TwoWays_FGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONIC_RATIO_Pooling_FGLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONIC_RATIO_Pooling_OLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9415***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7798***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9772***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.7906***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0549)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0480)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0515)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0460)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1982***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1724***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1482***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2609***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0452)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0342)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0433)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0882***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0792***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0670***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1081***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0253)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0187)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0285)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0768**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0405)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0137***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0203***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0217***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0409***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0462***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0333***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0060)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0236***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0163***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0119***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0295***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0150**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0070</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0062)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0068)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0192***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0109***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0107**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0244***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0148***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0158***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0241***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC7_SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0543)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0882**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1164***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0412)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0644*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0417)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1358***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1663***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0397)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0990**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1119***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0413)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0942**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1022**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0451)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0420)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0776**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0418)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0398)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0455)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0657*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0871**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0394)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0368)</t>
   </si>
   <si>
-    <t xml:space="preserve">RC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC1_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0102)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0059)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0070*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0211*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0172***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC2_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0039)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0120)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0043)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0134**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0148***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0103*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0174***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC3_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0057)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0037)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0040)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC4_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjusted R-squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2840***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2163***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intercept)_SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0512)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0422)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple R-squared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-795.9197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-764.5901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONIC_RATIO_FixIndi_OLS_HCse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONIC_RATIO_RanIndi_FGLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONIC_RATIO_TwoWays_OLS_HCse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONIC_RATIO_Pooling_GLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONIC_RATIO_Pooling_OLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0346**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0893***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0176)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0637</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0653*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0353</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0788**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0732)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0380)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0682)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0312)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0286***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0246***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0139***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0253***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0042)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0035)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0047)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0041)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0130***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0222***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0381***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0030)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0031)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0044)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0609***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0383***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0236***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0068)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0049)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0363***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0311***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0110**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0229***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3877</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6925***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6948***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0434)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0342)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-773.9608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-742.6311</t>
+    <t xml:space="preserve">-0.0658*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0678*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1268***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1548***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0402)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0376)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0410)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0530)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0498)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1194***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1450***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1077***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0414)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0544)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0508)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0532)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1214**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0529)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0399)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0375)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0815**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0408)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0382)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-724.227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-755.8627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-751.2485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-574.8981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-599.1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-704.3841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1030***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0155)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0664***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4094</t>
   </si>
 </sst>
 </file>
@@ -824,84 +1667,84 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -981,33 +1824,33 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -1015,120 +1858,1052 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14"/>
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14"/>
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15"/>
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15"/>
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16"/>
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16"/>
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17"/>
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
       <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17"/>
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18"/>
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
       <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19"/>
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
       <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20"/>
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+      <c r="F76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -1169,19 +2944,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -1189,99 +2964,99 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
@@ -1289,19 +3064,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -1309,79 +3084,79 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
@@ -1392,117 +3167,1089 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14"/>
+        <v>305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
       <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14"/>
+        <v>307</v>
+      </c>
+      <c r="E14" t="s">
+        <v>308</v>
+      </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15"/>
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>309</v>
+      </c>
       <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15"/>
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16"/>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>310</v>
+      </c>
       <c r="C16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16"/>
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
+        <v>312</v>
+      </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17"/>
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17"/>
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>314</v>
+      </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18"/>
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>316</v>
+      </c>
       <c r="C18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>317</v>
+      </c>
+      <c r="D18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
       <c r="E19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19"/>
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" t="s">
+        <v>321</v>
+      </c>
       <c r="E20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20"/>
+        <v>322</v>
+      </c>
+      <c r="F20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>352</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>364</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>366</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>373</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>375</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>359</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>370</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>390</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67" t="s">
+        <v>392</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68" t="s">
+        <v>394</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>396</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>398</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>399</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>400</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73" t="s">
+        <v>401</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" t="s">
+        <v>405</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76" t="s">
+        <v>407</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" t="s">
+        <v>412</v>
+      </c>
+      <c r="F78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" t="s">
+        <v>413</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>414</v>
+      </c>
+      <c r="E79" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84" t="s">
+        <v>420</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
